--- a/instructions.xlsx
+++ b/instructions.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27526"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10611"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Anzu/Race_IAT/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF8328DD-825C-064D-A42D-CA21302FF6A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14880" tabRatio="500"/>
+    <workbookView xWindow="32780" yWindow="-12720" windowWidth="33440" windowHeight="14880" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140000" concurrentCalc="0"/>
+  <calcPr calcId="140000"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -75,22 +81,22 @@
 Press E or I to continue.</t>
   </si>
   <si>
-    <t>Negative</t>
-  </si>
-  <si>
-    <t>Positive</t>
-  </si>
-  <si>
-    <t>Flowers</t>
-  </si>
-  <si>
-    <t>Insects</t>
+    <t>African Americans</t>
+  </si>
+  <si>
+    <t>European Americans</t>
+  </si>
+  <si>
+    <t>Bad</t>
+  </si>
+  <si>
+    <t>Good</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -119,6 +125,7 @@
     <font>
       <sz val="12"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -439,6 +446,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -763,19 +778,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3 C3 D2 D2 E2 F2 F3"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="69" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -795,15 +810,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="180">
+    <row r="2" spans="1:6" ht="204" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>5</v>
@@ -815,7 +830,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="135">
+    <row r="3" spans="1:6" ht="153" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
@@ -826,64 +841,64 @@
         <v>5</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="120">
+    <row r="4" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="F4" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="120">
+    <row r="5" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="F5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="120">
+    <row r="6" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
         <v>5</v>
@@ -895,41 +910,41 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="120">
+    <row r="7" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="F7" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="120">
+    <row r="8" spans="1:6" ht="136" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>17</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>15</v>
       </c>
       <c r="F8" t="s">
         <v>7</v>
